--- a/Shop Files/urbandale.xlsx
+++ b/Shop Files/urbandale.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="441" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="444" xml:space="preserve">
   <si>
     <t>Inventory Status</t>
   </si>
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>06/09/2025 07:03 PM</t>
+      <t>06/17/2025 08:16 PM</t>
     </r>
   </si>
   <si>
@@ -459,6 +459,12 @@
     <t>61512 - Electrical Replacement</t>
   </si>
   <si>
+    <t>Disc Light</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>3636057</t>
   </si>
   <si>
@@ -469,9 +475,6 @@
   </si>
   <si>
     <t>61425 - HVAC/Water Heater Repair</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>3584619</t>
@@ -929,6 +932,12 @@
   </si>
   <si>
     <t>Pella front door RH</t>
+  </si>
+  <si>
+    <t>Pella screens</t>
+  </si>
+  <si>
+    <t>Screens</t>
   </si>
   <si>
     <t>Plastic Universal outlet cover-clear</t>
@@ -1553,7 +1562,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:O200"/>
+  <dimension ref="A1:O202"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1920,7 +1929,7 @@
         <v>1.06</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>254.4</v>
+        <v>250.16</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>1.06</v>
@@ -1935,7 +1944,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>240.0</v>
+        <v>236.0</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>30</v>
@@ -1963,7 +1972,7 @@
         <v>4.64</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>556.8</v>
+        <v>440.8</v>
       </c>
       <c r="G13" s="9" t="n">
         <v>4.64</v>
@@ -1978,7 +1987,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>120.0</v>
+        <v>95.0</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>34</v>
@@ -2006,7 +2015,7 @@
         <v>37.44</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>711.36</v>
+        <v>561.6</v>
       </c>
       <c r="G14" s="9" t="n">
         <v>37.44</v>
@@ -2021,7 +2030,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="9" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -2047,7 +2056,7 @@
         <v>10.33</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>206.6</v>
+        <v>175.61</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>10.33</v>
@@ -2062,7 +2071,7 @@
         <v>0.0</v>
       </c>
       <c r="K15" s="9" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>23</v>
@@ -2088,7 +2097,7 @@
         <v>1.81</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>287.79</v>
+        <v>280.55</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>1.81</v>
@@ -2103,7 +2112,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>159.0</v>
+        <v>155.0</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>30</v>
@@ -2131,7 +2140,7 @@
         <v>6.71</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>1187.67</v>
+        <v>1167.54</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>6.71</v>
@@ -2146,7 +2155,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>177.0</v>
+        <v>174.0</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>34</v>
@@ -2174,7 +2183,7 @@
         <v>40.11</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>1323.63</v>
+        <v>1163.19</v>
       </c>
       <c r="G18" s="9" t="n">
         <v>40.11</v>
@@ -2189,7 +2198,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>23</v>
@@ -2215,7 +2224,7 @@
         <v>11.47</v>
       </c>
       <c r="F19" s="9" t="n">
-        <v>286.75</v>
+        <v>229.4</v>
       </c>
       <c r="G19" s="9" t="n">
         <v>11.47</v>
@@ -2230,7 +2239,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>23</v>
@@ -2389,7 +2398,7 @@
         <v>534.99</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>2139.96</v>
+        <v>1069.98</v>
       </c>
       <c r="G23" s="9" t="n">
         <v>534.99</v>
@@ -2404,7 +2413,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>47</v>
@@ -2477,7 +2486,7 @@
         <v>17.1</v>
       </c>
       <c r="F25" s="9" t="n">
-        <v>239.4</v>
+        <v>188.1</v>
       </c>
       <c r="G25" s="9" t="n">
         <v>17.1</v>
@@ -2492,7 +2501,7 @@
         <v>0.0</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>57</v>
@@ -2745,7 +2754,7 @@
         <v>0.6</v>
       </c>
       <c r="F31" s="9" t="n">
-        <v>29.4</v>
+        <v>23.4</v>
       </c>
       <c r="G31" s="9" t="n">
         <v>0.6</v>
@@ -2760,7 +2769,7 @@
         <v>0.0</v>
       </c>
       <c r="K31" s="9" t="n">
-        <v>49.0</v>
+        <v>39.0</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>34</v>
@@ -2921,7 +2930,7 @@
         <v>32.07</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>1282.8</v>
+        <v>1026.24</v>
       </c>
       <c r="G35" s="9" t="n">
         <v>32.07</v>
@@ -2936,7 +2945,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" s="9" t="n">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>34</v>
@@ -3052,7 +3061,7 @@
         <v>1.11</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>220.89</v>
+        <v>129.87</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>1.11</v>
@@ -3067,7 +3076,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" s="9" t="n">
-        <v>199.0</v>
+        <v>117.0</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>98</v>
@@ -3097,7 +3106,7 @@
         <v>2.08</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>6.24</v>
+        <v>22.88</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>2.08</v>
@@ -3112,7 +3121,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" s="9" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>23</v>
@@ -3142,7 +3151,7 @@
         <v>4.54</v>
       </c>
       <c r="F40" s="9" t="n">
-        <v>281.48</v>
+        <v>717.32</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>4.54</v>
@@ -3157,7 +3166,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" s="9" t="n">
-        <v>62.0</v>
+        <v>158.0</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>105</v>
@@ -3185,7 +3194,7 @@
         <v>0.45</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>27.0</v>
+        <v>16.2</v>
       </c>
       <c r="G41" s="9" t="n">
         <v>0.45</v>
@@ -3200,7 +3209,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>60.0</v>
+        <v>36.0</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>108</v>
@@ -3273,7 +3282,7 @@
         <v>2.04</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>73.44</v>
+        <v>157.08</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>2.04</v>
@@ -3288,7 +3297,7 @@
         <v>0.0</v>
       </c>
       <c r="K43" s="9" t="n">
-        <v>36.0</v>
+        <v>77.0</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>115</v>
@@ -3449,7 +3458,7 @@
         <v>53.49</v>
       </c>
       <c r="F47" s="9" t="n">
-        <v>855.84</v>
+        <v>802.35</v>
       </c>
       <c r="G47" s="9" t="n">
         <v>53.49</v>
@@ -3464,7 +3473,7 @@
         <v>0.0</v>
       </c>
       <c r="K47" s="9" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>57</v>
@@ -3494,7 +3503,7 @@
         <v>34.23</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>718.83</v>
+        <v>684.6</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>34.23</v>
@@ -3509,7 +3518,7 @@
         <v>0.0</v>
       </c>
       <c r="K48" s="9" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>57</v>
@@ -3537,7 +3546,7 @@
         <v>43.85</v>
       </c>
       <c r="F49" s="9" t="n">
-        <v>2981.8</v>
+        <v>2718.7</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>43.85</v>
@@ -3552,7 +3561,7 @@
         <v>0.0</v>
       </c>
       <c r="K49" s="9" t="n">
-        <v>68.0</v>
+        <v>62.0</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>34</v>
@@ -3578,7 +3587,7 @@
         <v>100.33</v>
       </c>
       <c r="F50" s="9" t="n">
-        <v>200.66</v>
+        <v>100.33</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>100.33</v>
@@ -3593,7 +3602,7 @@
         <v>0.0</v>
       </c>
       <c r="K50" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>57</v>
@@ -3607,24 +3616,24 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="7"/>
+      <c r="C51" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="D51" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E51" s="9" t="n">
-        <v>9.58</v>
+        <v>11.72</v>
       </c>
       <c r="F51" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G51" s="9" t="n">
-        <v>9.58</v>
+        <v>11.72</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>73</v>
@@ -3639,36 +3648,36 @@
         <v>0.0</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N51" s="7"/>
-      <c r="O51" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="O51" s="7"/>
     </row>
     <row r="52">
-      <c r="A52" s="7"/>
+      <c r="A52" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="B52" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E52" s="9" t="n">
-        <v>23.53</v>
+        <v>9.58</v>
       </c>
       <c r="F52" s="9" t="n">
-        <v>447.07</v>
+        <v>0.0</v>
       </c>
       <c r="G52" s="9" t="n">
-        <v>23.53</v>
+        <v>9.58</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="I52" s="9" t="n">
         <v>0.0</v>
@@ -3677,41 +3686,39 @@
         <v>0.0</v>
       </c>
       <c r="K52" s="9" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="M52" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N52" s="7"/>
       <c r="O52" s="7" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E53" s="9" t="n">
-        <v>23.51</v>
+        <v>23.53</v>
       </c>
       <c r="F53" s="9" t="n">
-        <v>987.42</v>
+        <v>447.07</v>
       </c>
       <c r="G53" s="9" t="n">
-        <v>23.51</v>
+        <v>23.53</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="I53" s="9" t="n">
         <v>0.0</v>
@@ -3720,45 +3727,41 @@
         <v>0.0</v>
       </c>
       <c r="K53" s="9" t="n">
-        <v>42.0</v>
+        <v>19.0</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="N53" s="7"/>
       <c r="O53" s="7" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>82</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E54" s="9" t="n">
-        <v>2.49</v>
+        <v>23.51</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>72.21</v>
+        <v>846.36</v>
       </c>
       <c r="G54" s="9" t="n">
-        <v>2.49</v>
+        <v>23.51</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I54" s="9" t="n">
         <v>0.0</v>
@@ -3767,41 +3770,45 @@
         <v>0.0</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="M54" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="7"/>
+      <c r="N54" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O54" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="7"/>
+      <c r="C55" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="D55" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E55" s="9" t="n">
-        <v>11.76</v>
+        <v>2.49</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>117.6</v>
+        <v>209.16</v>
       </c>
       <c r="G55" s="9" t="n">
-        <v>11.76</v>
+        <v>2.49</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I55" s="9" t="n">
         <v>0.0</v>
@@ -3810,43 +3817,41 @@
         <v>0.0</v>
       </c>
       <c r="K55" s="9" t="n">
-        <v>10.0</v>
+        <v>84.0</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N55" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="N55" s="7"/>
       <c r="O55" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E56" s="9" t="n">
-        <v>5.87</v>
+        <v>11.76</v>
       </c>
       <c r="F56" s="9" t="n">
-        <v>0.0</v>
+        <v>117.6</v>
       </c>
       <c r="G56" s="9" t="n">
-        <v>5.87</v>
+        <v>11.76</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I56" s="9" t="n">
         <v>0.0</v>
@@ -3855,7 +3860,7 @@
         <v>0.0</v>
       </c>
       <c r="K56" s="9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>57</v>
@@ -3863,35 +3868,35 @@
       <c r="M56" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="7"/>
+      <c r="N56" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="O56" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>104</v>
-      </c>
+      <c r="C57" s="7"/>
       <c r="D57" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E57" s="9" t="n">
-        <v>13.24</v>
+        <v>5.87</v>
       </c>
       <c r="F57" s="9" t="n">
-        <v>105.92</v>
+        <v>0.0</v>
       </c>
       <c r="G57" s="9" t="n">
-        <v>13.24</v>
+        <v>5.87</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I57" s="9" t="n">
         <v>0.0</v>
@@ -3900,7 +3905,7 @@
         <v>0.0</v>
       </c>
       <c r="K57" s="9" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>57</v>
@@ -3908,37 +3913,35 @@
       <c r="M57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="7" t="s">
-        <v>151</v>
-      </c>
+      <c r="N57" s="7"/>
       <c r="O57" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E58" s="9" t="n">
-        <v>12.0</v>
+        <v>13.24</v>
       </c>
       <c r="F58" s="9" t="n">
-        <v>180.0</v>
+        <v>105.92</v>
       </c>
       <c r="G58" s="9" t="n">
-        <v>12.0</v>
+        <v>13.24</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I58" s="9" t="n">
         <v>0.0</v>
@@ -3947,26 +3950,30 @@
         <v>0.0</v>
       </c>
       <c r="K58" s="9" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M58" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="7"/>
+      <c r="N58" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="O58" s="7" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7"/>
+      <c r="A59" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="B59" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>72</v>
@@ -3975,7 +3982,7 @@
         <v>12.0</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>120.0</v>
+        <v>180.0</v>
       </c>
       <c r="G59" s="9" t="n">
         <v>12.0</v>
@@ -3990,7 +3997,7 @@
         <v>0.0</v>
       </c>
       <c r="K59" s="9" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>34</v>
@@ -4004,26 +4011,24 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="C60" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E60" s="9" t="n">
-        <v>1.92</v>
+        <v>12.0</v>
       </c>
       <c r="F60" s="9" t="n">
-        <v>26.88</v>
+        <v>108.0</v>
       </c>
       <c r="G60" s="9" t="n">
-        <v>1.92</v>
+        <v>12.0</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>73</v>
@@ -4035,40 +4040,40 @@
         <v>0.0</v>
       </c>
       <c r="K60" s="9" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N60" s="7"/>
       <c r="O60" s="7" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E61" s="9" t="n">
-        <v>2.32</v>
+        <v>1.92</v>
       </c>
       <c r="F61" s="9" t="n">
-        <v>116.0</v>
+        <v>26.88</v>
       </c>
       <c r="G61" s="9" t="n">
-        <v>2.32</v>
+        <v>1.92</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>73</v>
@@ -4080,10 +4085,10 @@
         <v>0.0</v>
       </c>
       <c r="K61" s="9" t="n">
-        <v>50.0</v>
+        <v>14.0</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="M61" s="7" t="s">
         <v>20</v>
@@ -4095,26 +4100,28 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" s="7"/>
       <c r="D62" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E62" s="9" t="n">
-        <v>16.11</v>
+        <v>2.32</v>
       </c>
       <c r="F62" s="9" t="n">
-        <v>177.21</v>
+        <v>273.76</v>
       </c>
       <c r="G62" s="9" t="n">
-        <v>16.11</v>
+        <v>2.32</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I62" s="9" t="n">
         <v>0.0</v>
@@ -4123,41 +4130,41 @@
         <v>0.0</v>
       </c>
       <c r="K62" s="9" t="n">
-        <v>11.0</v>
+        <v>118.0</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="M62" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N62" s="7"/>
       <c r="O62" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E63" s="9" t="n">
-        <v>7.47</v>
+        <v>16.11</v>
       </c>
       <c r="F63" s="9" t="n">
-        <v>67.23</v>
+        <v>177.21</v>
       </c>
       <c r="G63" s="9" t="n">
-        <v>7.47</v>
+        <v>16.11</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I63" s="9" t="n">
         <v>0.0</v>
@@ -4166,25 +4173,25 @@
         <v>0.0</v>
       </c>
       <c r="K63" s="9" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="M63" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N63" s="7"/>
       <c r="O63" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
@@ -4194,7 +4201,7 @@
         <v>7.47</v>
       </c>
       <c r="F64" s="9" t="n">
-        <v>82.17</v>
+        <v>231.57</v>
       </c>
       <c r="G64" s="9" t="n">
         <v>7.47</v>
@@ -4209,10 +4216,10 @@
         <v>0.0</v>
       </c>
       <c r="K64" s="9" t="n">
-        <v>11.0</v>
+        <v>31.0</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M64" s="7" t="s">
         <v>20</v>
@@ -4223,7 +4230,9 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7"/>
+      <c r="A65" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="B65" s="7" t="s">
         <v>168</v>
       </c>
@@ -4232,16 +4241,16 @@
         <v>72</v>
       </c>
       <c r="E65" s="9" t="n">
-        <v>8.99</v>
+        <v>7.47</v>
       </c>
       <c r="F65" s="9" t="n">
-        <v>152.83</v>
+        <v>171.81</v>
       </c>
       <c r="G65" s="9" t="n">
-        <v>8.99</v>
+        <v>7.47</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I65" s="9" t="n">
         <v>0.0</v>
@@ -4250,10 +4259,10 @@
         <v>0.0</v>
       </c>
       <c r="K65" s="9" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>20</v>
@@ -4264,27 +4273,25 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E66" s="9" t="n">
-        <v>9.19</v>
+        <v>8.99</v>
       </c>
       <c r="F66" s="9" t="n">
-        <v>55.14</v>
+        <v>152.83</v>
       </c>
       <c r="G66" s="9" t="n">
-        <v>9.19</v>
+        <v>8.99</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I66" s="9" t="n">
         <v>0.0</v>
@@ -4293,10 +4300,10 @@
         <v>0.0</v>
       </c>
       <c r="K66" s="9" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M66" s="7" t="s">
         <v>20</v>
@@ -4308,23 +4315,23 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E67" s="9" t="n">
-        <v>7.09</v>
+        <v>9.19</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>99.26</v>
+        <v>45.95</v>
       </c>
       <c r="G67" s="9" t="n">
-        <v>7.09</v>
+        <v>9.19</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>73</v>
@@ -4336,7 +4343,7 @@
         <v>0.0</v>
       </c>
       <c r="K67" s="9" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>23</v>
@@ -4351,10 +4358,10 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
@@ -4364,7 +4371,7 @@
         <v>7.09</v>
       </c>
       <c r="F68" s="9" t="n">
-        <v>77.99</v>
+        <v>99.26</v>
       </c>
       <c r="G68" s="9" t="n">
         <v>7.09</v>
@@ -4379,7 +4386,7 @@
         <v>0.0</v>
       </c>
       <c r="K68" s="9" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="L68" s="7" t="s">
         <v>23</v>
@@ -4393,7 +4400,9 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7"/>
+      <c r="A69" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="B69" s="7" t="s">
         <v>175</v>
       </c>
@@ -4402,16 +4411,16 @@
         <v>72</v>
       </c>
       <c r="E69" s="9" t="n">
-        <v>35.0</v>
+        <v>7.09</v>
       </c>
       <c r="F69" s="9" t="n">
-        <v>420.0</v>
+        <v>77.99</v>
       </c>
       <c r="G69" s="9" t="n">
-        <v>35.0</v>
+        <v>7.09</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="I69" s="9" t="n">
         <v>0.0</v>
@@ -4420,38 +4429,36 @@
         <v>0.0</v>
       </c>
       <c r="K69" s="9" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M69" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="7" t="s">
-        <v>176</v>
-      </c>
+      <c r="N69" s="7"/>
       <c r="O69" s="7" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E70" s="9" t="n">
-        <v>45.0</v>
+        <v>35.0</v>
       </c>
       <c r="F70" s="9" t="n">
-        <v>405.0</v>
+        <v>385.0</v>
       </c>
       <c r="G70" s="9" t="n">
-        <v>45.0</v>
+        <v>35.0</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>52</v>
@@ -4463,7 +4470,7 @@
         <v>0.0</v>
       </c>
       <c r="K70" s="9" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>57</v>
@@ -4472,7 +4479,7 @@
         <v>20</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O70" s="7" t="s">
         <v>111</v>
@@ -4481,20 +4488,20 @@
     <row r="71">
       <c r="A71" s="7"/>
       <c r="B71" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E71" s="9" t="n">
-        <v>39.99</v>
+        <v>45.0</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>1039.74</v>
+        <v>405.0</v>
       </c>
       <c r="G71" s="9" t="n">
-        <v>39.99</v>
+        <v>45.0</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>52</v>
@@ -4506,16 +4513,16 @@
         <v>0.0</v>
       </c>
       <c r="K71" s="9" t="n">
-        <v>26.0</v>
+        <v>9.0</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>111</v>
@@ -4524,23 +4531,23 @@
     <row r="72">
       <c r="A72" s="7"/>
       <c r="B72" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E72" s="9" t="n">
-        <v>19.27</v>
+        <v>39.99</v>
       </c>
       <c r="F72" s="9" t="n">
-        <v>481.75</v>
+        <v>1039.74</v>
       </c>
       <c r="G72" s="9" t="n">
-        <v>19.27</v>
+        <v>39.99</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I72" s="9" t="n">
         <v>0.0</v>
@@ -4549,7 +4556,7 @@
         <v>0.0</v>
       </c>
       <c r="K72" s="9" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>23</v>
@@ -4557,33 +4564,33 @@
       <c r="M72" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N72" s="7"/>
+      <c r="N72" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="O72" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E73" s="9" t="n">
-        <v>10.65</v>
+        <v>19.27</v>
       </c>
       <c r="F73" s="9" t="n">
-        <v>10.65</v>
+        <v>404.67</v>
       </c>
       <c r="G73" s="9" t="n">
-        <v>10.65</v>
+        <v>19.27</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I73" s="9" t="n">
         <v>0.0</v>
@@ -4592,43 +4599,41 @@
         <v>0.0</v>
       </c>
       <c r="K73" s="9" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M73" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N73" s="7"/>
       <c r="O73" s="7" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>186</v>
-      </c>
+      <c r="C74" s="7"/>
       <c r="D74" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E74" s="9" t="n">
-        <v>21.39</v>
+        <v>10.65</v>
       </c>
       <c r="F74" s="9" t="n">
-        <v>320.85</v>
+        <v>10.65</v>
       </c>
       <c r="G74" s="9" t="n">
-        <v>21.39</v>
+        <v>10.65</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I74" s="9" t="n">
         <v>0.0</v>
@@ -4637,84 +4642,86 @@
         <v>0.0</v>
       </c>
       <c r="K74" s="9" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M74" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N74" s="7" t="s">
+      <c r="N74" s="7"/>
+      <c r="O74" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="O74" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="7"/>
       <c r="D75" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E75" s="9" t="n">
-        <v>6.96</v>
+        <v>21.39</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>90.48</v>
+        <v>320.85</v>
       </c>
       <c r="G75" s="9" t="n">
-        <v>6.96</v>
+        <v>21.39</v>
       </c>
       <c r="H75" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I75" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J75" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K75" s="9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="I75" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J75" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K75" s="9" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M75" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E76" s="9" t="n">
-        <v>5.87</v>
+        <v>6.96</v>
       </c>
       <c r="F76" s="9" t="n">
-        <v>11.74</v>
+        <v>76.56</v>
       </c>
       <c r="G76" s="9" t="n">
-        <v>5.87</v>
+        <v>6.96</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="I76" s="9" t="n">
         <v>0.0</v>
@@ -4723,39 +4730,41 @@
         <v>0.0</v>
       </c>
       <c r="K76" s="9" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M76" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N76" s="7"/>
       <c r="O76" s="7" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7"/>
+      <c r="A77" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="B77" s="7" t="s">
         <v>193</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7" t="s">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="E77" s="9" t="n">
-        <v>352.03</v>
+        <v>5.87</v>
       </c>
       <c r="F77" s="9" t="n">
-        <v>352.03</v>
+        <v>11.74</v>
       </c>
       <c r="G77" s="9" t="n">
-        <v>352.03</v>
+        <v>5.87</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="I77" s="9" t="n">
         <v>0.0</v>
@@ -4764,39 +4773,39 @@
         <v>0.0</v>
       </c>
       <c r="K77" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M77" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N77" s="7"/>
       <c r="O77" s="7" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="7"/>
       <c r="B78" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E78" s="9" t="n">
-        <v>73.83</v>
+        <v>352.03</v>
       </c>
       <c r="F78" s="9" t="n">
-        <v>73.83</v>
+        <v>352.03</v>
       </c>
       <c r="G78" s="9" t="n">
-        <v>73.83</v>
+        <v>352.03</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I78" s="9" t="n">
         <v>0.0</v>
@@ -4815,29 +4824,29 @@
       </c>
       <c r="N78" s="7"/>
       <c r="O78" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E79" s="9" t="n">
-        <v>171.19</v>
+        <v>73.83</v>
       </c>
       <c r="F79" s="9" t="n">
-        <v>171.19</v>
+        <v>73.83</v>
       </c>
       <c r="G79" s="9" t="n">
-        <v>171.19</v>
+        <v>73.83</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I79" s="9" t="n">
         <v>0.0</v>
@@ -4856,7 +4865,7 @@
       </c>
       <c r="N79" s="7"/>
       <c r="O79" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -4866,19 +4875,19 @@
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E80" s="9" t="n">
-        <v>95.23</v>
+        <v>171.19</v>
       </c>
       <c r="F80" s="9" t="n">
-        <v>0.0</v>
+        <v>171.19</v>
       </c>
       <c r="G80" s="9" t="n">
-        <v>95.23</v>
+        <v>171.19</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I80" s="9" t="n">
         <v>0.0</v>
@@ -4887,7 +4896,7 @@
         <v>0.0</v>
       </c>
       <c r="K80" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>47</v>
@@ -4897,7 +4906,7 @@
       </c>
       <c r="N80" s="7"/>
       <c r="O80" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -4907,19 +4916,19 @@
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E81" s="9" t="n">
-        <v>212.93</v>
+        <v>95.23</v>
       </c>
       <c r="F81" s="9" t="n">
-        <v>212.93</v>
+        <v>0.0</v>
       </c>
       <c r="G81" s="9" t="n">
-        <v>212.93</v>
+        <v>95.23</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I81" s="9" t="n">
         <v>0.0</v>
@@ -4928,7 +4937,7 @@
         <v>0.0</v>
       </c>
       <c r="K81" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>47</v>
@@ -4938,7 +4947,7 @@
       </c>
       <c r="N81" s="7"/>
       <c r="O81" s="7" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82">
@@ -4948,19 +4957,19 @@
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E82" s="9" t="n">
-        <v>16050.0</v>
+        <v>212.93</v>
       </c>
       <c r="F82" s="9" t="n">
-        <v>16050.0</v>
+        <v>212.93</v>
       </c>
       <c r="G82" s="9" t="n">
-        <v>16050.0</v>
+        <v>212.93</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I82" s="9" t="n">
         <v>0.0</v>
@@ -4979,33 +4988,29 @@
       </c>
       <c r="N82" s="7"/>
       <c r="O82" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>207</v>
-      </c>
+      <c r="C83" s="7"/>
       <c r="D83" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E83" s="9" t="n">
-        <v>18.59</v>
+        <v>16050.0</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>74.36</v>
+        <v>16050.0</v>
       </c>
       <c r="G83" s="9" t="n">
-        <v>18.59</v>
+        <v>16050.0</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="I83" s="9" t="n">
         <v>0.0</v>
@@ -5014,39 +5019,43 @@
         <v>0.0</v>
       </c>
       <c r="K83" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M83" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N83" s="7"/>
       <c r="O83" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="7"/>
+      <c r="A84" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="B84" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C84" s="7"/>
       <c r="D84" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E84" s="9" t="n">
-        <v>191.53</v>
+        <v>18.59</v>
       </c>
       <c r="F84" s="9" t="n">
-        <v>0.0</v>
+        <v>74.36</v>
       </c>
       <c r="G84" s="9" t="n">
-        <v>191.53</v>
+        <v>18.59</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="I84" s="9" t="n">
         <v>0.0</v>
@@ -5055,17 +5064,17 @@
         <v>0.0</v>
       </c>
       <c r="K84" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M84" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N84" s="7"/>
       <c r="O84" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85">
@@ -5075,19 +5084,19 @@
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E85" s="9" t="n">
-        <v>180.83</v>
+        <v>191.53</v>
       </c>
       <c r="F85" s="9" t="n">
-        <v>361.66</v>
+        <v>0.0</v>
       </c>
       <c r="G85" s="9" t="n">
-        <v>180.83</v>
+        <v>191.53</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I85" s="9" t="n">
         <v>0.0</v>
@@ -5096,7 +5105,7 @@
         <v>0.0</v>
       </c>
       <c r="K85" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>47</v>
@@ -5106,7 +5115,7 @@
       </c>
       <c r="N85" s="7"/>
       <c r="O85" s="7" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
@@ -5116,19 +5125,19 @@
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E86" s="9" t="n">
-        <v>37.45</v>
+        <v>180.83</v>
       </c>
       <c r="F86" s="9" t="n">
-        <v>74.9</v>
+        <v>361.66</v>
       </c>
       <c r="G86" s="9" t="n">
-        <v>37.45</v>
+        <v>180.83</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I86" s="9" t="n">
         <v>0.0</v>
@@ -5157,19 +5166,19 @@
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E87" s="9" t="n">
-        <v>255.73</v>
+        <v>37.45</v>
       </c>
       <c r="F87" s="9" t="n">
-        <v>511.46</v>
+        <v>74.9</v>
       </c>
       <c r="G87" s="9" t="n">
-        <v>255.73</v>
+        <v>37.45</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I87" s="9" t="n">
         <v>0.0</v>
@@ -5198,19 +5207,19 @@
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E88" s="9" t="n">
-        <v>170.13</v>
+        <v>255.73</v>
       </c>
       <c r="F88" s="9" t="n">
-        <v>170.13</v>
+        <v>511.46</v>
       </c>
       <c r="G88" s="9" t="n">
-        <v>170.13</v>
+        <v>255.73</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I88" s="9" t="n">
         <v>0.0</v>
@@ -5219,7 +5228,7 @@
         <v>0.0</v>
       </c>
       <c r="K88" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>47</v>
@@ -5229,7 +5238,7 @@
       </c>
       <c r="N88" s="7"/>
       <c r="O88" s="7" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89">
@@ -5239,19 +5248,19 @@
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E89" s="9" t="n">
-        <v>191.53</v>
+        <v>170.13</v>
       </c>
       <c r="F89" s="9" t="n">
-        <v>191.53</v>
+        <v>170.13</v>
       </c>
       <c r="G89" s="9" t="n">
-        <v>191.53</v>
+        <v>170.13</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I89" s="9" t="n">
         <v>0.0</v>
@@ -5280,19 +5289,19 @@
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E90" s="9" t="n">
-        <v>576.73</v>
+        <v>191.53</v>
       </c>
       <c r="F90" s="9" t="n">
-        <v>6344.03</v>
+        <v>191.53</v>
       </c>
       <c r="G90" s="9" t="n">
-        <v>576.73</v>
+        <v>191.53</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I90" s="9" t="n">
         <v>0.0</v>
@@ -5301,7 +5310,7 @@
         <v>0.0</v>
       </c>
       <c r="K90" s="9" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>47</v>
@@ -5321,19 +5330,19 @@
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E91" s="9" t="n">
-        <v>26.75</v>
+        <v>576.73</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>53.5</v>
+        <v>6344.03</v>
       </c>
       <c r="G91" s="9" t="n">
-        <v>26.75</v>
+        <v>576.73</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I91" s="9" t="n">
         <v>0.0</v>
@@ -5342,7 +5351,7 @@
         <v>0.0</v>
       </c>
       <c r="K91" s="9" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>47</v>
@@ -5352,7 +5361,7 @@
       </c>
       <c r="N91" s="7"/>
       <c r="O91" s="7" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92">
@@ -5362,19 +5371,19 @@
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E92" s="9" t="n">
-        <v>267.49</v>
+        <v>26.75</v>
       </c>
       <c r="F92" s="9" t="n">
-        <v>534.98</v>
+        <v>53.5</v>
       </c>
       <c r="G92" s="9" t="n">
-        <v>267.49</v>
+        <v>26.75</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="I92" s="9" t="n">
         <v>0.0</v>
@@ -5393,29 +5402,29 @@
       </c>
       <c r="N92" s="7"/>
       <c r="O92" s="7" t="s">
-        <v>218</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="7"/>
       <c r="B93" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E93" s="9" t="n">
-        <v>95.23</v>
+        <v>267.49</v>
       </c>
       <c r="F93" s="9" t="n">
-        <v>285.69</v>
+        <v>534.98</v>
       </c>
       <c r="G93" s="9" t="n">
-        <v>95.23</v>
+        <v>267.49</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="I93" s="9" t="n">
         <v>0.0</v>
@@ -5424,7 +5433,7 @@
         <v>0.0</v>
       </c>
       <c r="K93" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>47</v>
@@ -5434,7 +5443,7 @@
       </c>
       <c r="N93" s="7"/>
       <c r="O93" s="7" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94">
@@ -5444,19 +5453,19 @@
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E94" s="9" t="n">
-        <v>255.73</v>
+        <v>95.23</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>767.19</v>
+        <v>285.69</v>
       </c>
       <c r="G94" s="9" t="n">
-        <v>255.73</v>
+        <v>95.23</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I94" s="9" t="n">
         <v>0.0</v>
@@ -5475,29 +5484,29 @@
       </c>
       <c r="N94" s="7"/>
       <c r="O94" s="7" t="s">
-        <v>221</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7"/>
       <c r="B95" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E95" s="9" t="n">
-        <v>15536.4</v>
+        <v>255.73</v>
       </c>
       <c r="F95" s="9" t="n">
-        <v>15536.4</v>
+        <v>767.19</v>
       </c>
       <c r="G95" s="9" t="n">
-        <v>15536.4</v>
+        <v>255.73</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I95" s="9" t="n">
         <v>0.0</v>
@@ -5506,7 +5515,7 @@
         <v>0.0</v>
       </c>
       <c r="K95" s="9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>47</v>
@@ -5516,29 +5525,29 @@
       </c>
       <c r="N95" s="7"/>
       <c r="O95" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7"/>
       <c r="B96" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E96" s="9" t="n">
-        <v>0.0</v>
+        <v>15536.4</v>
       </c>
       <c r="F96" s="9" t="n">
-        <v>0.0</v>
+        <v>15536.4</v>
       </c>
       <c r="G96" s="9" t="n">
-        <v>0.0</v>
+        <v>15536.4</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I96" s="9" t="n">
         <v>0.0</v>
@@ -5547,7 +5556,7 @@
         <v>0.0</v>
       </c>
       <c r="K96" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>47</v>
@@ -5557,7 +5566,7 @@
       </c>
       <c r="N96" s="7"/>
       <c r="O96" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97">
@@ -5567,7 +5576,7 @@
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E97" s="9" t="n">
         <v>0.0</v>
@@ -5579,7 +5588,7 @@
         <v>0.0</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I97" s="9" t="n">
         <v>0.0</v>
@@ -5588,7 +5597,7 @@
         <v>0.0</v>
       </c>
       <c r="K97" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>47</v>
@@ -5598,31 +5607,29 @@
       </c>
       <c r="N97" s="7"/>
       <c r="O97" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="E98" s="9" t="n">
-        <v>9.62</v>
+        <v>0.0</v>
       </c>
       <c r="F98" s="9" t="n">
-        <v>57.72</v>
+        <v>0.0</v>
       </c>
       <c r="G98" s="9" t="n">
-        <v>9.62</v>
+        <v>0.0</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="I98" s="9" t="n">
         <v>0.0</v>
@@ -5631,38 +5638,38 @@
         <v>0.0</v>
       </c>
       <c r="K98" s="9" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M98" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N98" s="7"/>
       <c r="O98" s="7" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="7"/>
+      <c r="A99" s="7" t="s">
+        <v>227</v>
+      </c>
       <c r="B99" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="E99" s="9" t="n">
-        <v>37.17</v>
+        <v>9.62</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>408.87</v>
+        <v>67.34</v>
       </c>
       <c r="G99" s="9" t="n">
-        <v>37.17</v>
+        <v>9.62</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>65</v>
@@ -5674,41 +5681,41 @@
         <v>0.0</v>
       </c>
       <c r="K99" s="9" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M99" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N99" s="7"/>
       <c r="O99" s="7" t="s">
-        <v>221</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C100" s="7"/>
       <c r="D100" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E100" s="9" t="n">
-        <v>17.64</v>
+        <v>37.17</v>
       </c>
       <c r="F100" s="9" t="n">
-        <v>105.84</v>
+        <v>408.87</v>
       </c>
       <c r="G100" s="9" t="n">
-        <v>17.64</v>
+        <v>37.17</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="I100" s="9" t="n">
         <v>0.0</v>
@@ -5717,7 +5724,7 @@
         <v>0.0</v>
       </c>
       <c r="K100" s="9" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="L100" s="7" t="s">
         <v>57</v>
@@ -5727,31 +5734,31 @@
       </c>
       <c r="N100" s="7"/>
       <c r="O100" s="7" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E101" s="9" t="n">
-        <v>6.94</v>
+        <v>17.64</v>
       </c>
       <c r="F101" s="9" t="n">
-        <v>298.42</v>
+        <v>105.84</v>
       </c>
       <c r="G101" s="9" t="n">
-        <v>6.94</v>
+        <v>17.64</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="I101" s="9" t="n">
         <v>0.0</v>
@@ -5760,10 +5767,10 @@
         <v>0.0</v>
       </c>
       <c r="K101" s="9" t="n">
-        <v>43.0</v>
+        <v>6.0</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M101" s="7" t="s">
         <v>20</v>
@@ -5775,25 +5782,23 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>237</v>
-      </c>
+      <c r="C102" s="7"/>
       <c r="D102" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E102" s="9" t="n">
-        <v>0.33</v>
+        <v>6.94</v>
       </c>
       <c r="F102" s="9" t="n">
-        <v>23.1</v>
+        <v>298.42</v>
       </c>
       <c r="G102" s="9" t="n">
-        <v>0.33</v>
+        <v>6.94</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>65</v>
@@ -5805,10 +5810,10 @@
         <v>0.0</v>
       </c>
       <c r="K102" s="9" t="n">
-        <v>70.0</v>
+        <v>43.0</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="M102" s="7" t="s">
         <v>20</v>
@@ -5819,68 +5824,70 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="7"/>
+      <c r="A103" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="B103" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E103" s="9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F103" s="9" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="G103" s="9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I103" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J103" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K103" s="9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="L103" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E103" s="9" t="n">
-        <v>235.56</v>
-      </c>
-      <c r="F103" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G103" s="9" t="n">
-        <v>235.56</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I103" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J103" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K103" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L103" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M103" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N103" s="7"/>
       <c r="O103" s="7" t="s">
-        <v>241</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="7" t="s">
-        <v>242</v>
-      </c>
+      <c r="A104" s="7"/>
       <c r="B104" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E104" s="9" t="n">
-        <v>8.54</v>
+        <v>235.56</v>
       </c>
       <c r="F104" s="9" t="n">
-        <v>68.32</v>
+        <v>0.0</v>
       </c>
       <c r="G104" s="9" t="n">
-        <v>8.54</v>
+        <v>235.56</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="I104" s="9" t="n">
         <v>0.0</v>
@@ -5889,39 +5896,41 @@
         <v>0.0</v>
       </c>
       <c r="K104" s="9" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M104" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N104" s="7"/>
       <c r="O104" s="7" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="7"/>
+      <c r="A105" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="B105" s="7" t="s">
         <v>244</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E105" s="9" t="n">
-        <v>266.75</v>
+        <v>8.54</v>
       </c>
       <c r="F105" s="9" t="n">
-        <v>266.75</v>
+        <v>68.32</v>
       </c>
       <c r="G105" s="9" t="n">
-        <v>266.75</v>
+        <v>8.54</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="I105" s="9" t="n">
         <v>0.0</v>
@@ -5930,41 +5939,39 @@
         <v>0.0</v>
       </c>
       <c r="K105" s="9" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M105" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N105" s="7"/>
       <c r="O105" s="7" t="s">
-        <v>241</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E106" s="9" t="n">
-        <v>6.72</v>
+        <v>266.75</v>
       </c>
       <c r="F106" s="9" t="n">
-        <v>168.0</v>
+        <v>266.75</v>
       </c>
       <c r="G106" s="9" t="n">
-        <v>6.72</v>
+        <v>266.75</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="I106" s="9" t="n">
         <v>0.0</v>
@@ -5973,41 +5980,41 @@
         <v>0.0</v>
       </c>
       <c r="K106" s="9" t="n">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M106" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N106" s="7"/>
       <c r="O106" s="7" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E107" s="9" t="n">
-        <v>12.82</v>
+        <v>6.72</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>51.28</v>
+        <v>241.92</v>
       </c>
       <c r="G107" s="9" t="n">
-        <v>12.82</v>
+        <v>6.72</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="I107" s="9" t="n">
         <v>0.0</v>
@@ -6016,10 +6023,10 @@
         <v>0.0</v>
       </c>
       <c r="K107" s="9" t="n">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M107" s="7" t="s">
         <v>20</v>
@@ -6031,28 +6038,26 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>251</v>
-      </c>
+      <c r="C108" s="7"/>
       <c r="D108" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E108" s="9" t="n">
-        <v>13.89</v>
+        <v>12.82</v>
       </c>
       <c r="F108" s="9" t="n">
-        <v>27.78</v>
+        <v>115.38</v>
       </c>
       <c r="G108" s="9" t="n">
-        <v>13.89</v>
+        <v>12.82</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="I108" s="9" t="n">
         <v>0.0</v>
@@ -6061,10 +6066,10 @@
         <v>0.0</v>
       </c>
       <c r="K108" s="9" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M108" s="7" t="s">
         <v>20</v>
@@ -6075,22 +6080,26 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="7"/>
+      <c r="A109" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="B109" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C109" s="7"/>
       <c r="D109" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E109" s="9" t="n">
-        <v>0.91</v>
+        <v>13.89</v>
       </c>
       <c r="F109" s="9" t="n">
-        <v>1.82</v>
+        <v>27.78</v>
       </c>
       <c r="G109" s="9" t="n">
-        <v>0.91</v>
+        <v>13.89</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>65</v>
@@ -6105,7 +6114,7 @@
         <v>2.0</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M109" s="7" t="s">
         <v>20</v>
@@ -6122,13 +6131,13 @@
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E110" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="F110" s="9" t="n">
-        <v>0.0</v>
+        <v>1.82</v>
       </c>
       <c r="G110" s="9" t="n">
         <v>0.91</v>
@@ -6143,7 +6152,7 @@
         <v>0.0</v>
       </c>
       <c r="K110" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L110" s="7" t="s">
         <v>57</v>
@@ -6163,13 +6172,13 @@
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E111" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="F111" s="9" t="n">
-        <v>0.91</v>
+        <v>0.0</v>
       </c>
       <c r="G111" s="9" t="n">
         <v>0.91</v>
@@ -6184,7 +6193,7 @@
         <v>0.0</v>
       </c>
       <c r="K111" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>57</v>
@@ -6204,13 +6213,13 @@
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E112" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="F112" s="9" t="n">
-        <v>0.0</v>
+        <v>0.91</v>
       </c>
       <c r="G112" s="9" t="n">
         <v>0.91</v>
@@ -6225,7 +6234,7 @@
         <v>0.0</v>
       </c>
       <c r="K112" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L112" s="7" t="s">
         <v>57</v>
@@ -6245,13 +6254,13 @@
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E113" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="F113" s="9" t="n">
-        <v>8.19</v>
+        <v>0.0</v>
       </c>
       <c r="G113" s="9" t="n">
         <v>0.91</v>
@@ -6266,7 +6275,7 @@
         <v>0.0</v>
       </c>
       <c r="K113" s="9" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>57</v>
@@ -6286,13 +6295,13 @@
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E114" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="F114" s="9" t="n">
-        <v>5.46</v>
+        <v>8.19</v>
       </c>
       <c r="G114" s="9" t="n">
         <v>0.91</v>
@@ -6307,7 +6316,7 @@
         <v>0.0</v>
       </c>
       <c r="K114" s="9" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>57</v>
@@ -6327,7 +6336,7 @@
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E115" s="9" t="n">
         <v>0.91</v>
@@ -6368,13 +6377,13 @@
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E116" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="F116" s="9" t="n">
-        <v>2.73</v>
+        <v>5.46</v>
       </c>
       <c r="G116" s="9" t="n">
         <v>0.91</v>
@@ -6389,7 +6398,7 @@
         <v>0.0</v>
       </c>
       <c r="K116" s="9" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="L116" s="7" t="s">
         <v>57</v>
@@ -6409,13 +6418,13 @@
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E117" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="F117" s="9" t="n">
-        <v>22.75</v>
+        <v>2.73</v>
       </c>
       <c r="G117" s="9" t="n">
         <v>0.91</v>
@@ -6430,7 +6439,7 @@
         <v>0.0</v>
       </c>
       <c r="K117" s="9" t="n">
-        <v>25.0</v>
+        <v>3.0</v>
       </c>
       <c r="L117" s="7" t="s">
         <v>57</v>
@@ -6450,13 +6459,13 @@
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E118" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="F118" s="9" t="n">
-        <v>11.83</v>
+        <v>22.75</v>
       </c>
       <c r="G118" s="9" t="n">
         <v>0.91</v>
@@ -6471,7 +6480,7 @@
         <v>0.0</v>
       </c>
       <c r="K118" s="9" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="L118" s="7" t="s">
         <v>57</v>
@@ -6489,23 +6498,21 @@
       <c r="B119" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C119" s="7" t="s">
-        <v>263</v>
-      </c>
+      <c r="C119" s="7"/>
       <c r="D119" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E119" s="9" t="n">
-        <v>37.45</v>
+        <v>0.91</v>
       </c>
       <c r="F119" s="9" t="n">
-        <v>1086.05</v>
+        <v>11.83</v>
       </c>
       <c r="G119" s="9" t="n">
-        <v>37.45</v>
+        <v>0.91</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="I119" s="9" t="n">
         <v>0.0</v>
@@ -6514,43 +6521,41 @@
         <v>0.0</v>
       </c>
       <c r="K119" s="9" t="n">
-        <v>29.0</v>
+        <v>13.0</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M119" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N119" s="7" t="s">
-        <v>264</v>
-      </c>
+      <c r="N119" s="7"/>
       <c r="O119" s="7" t="s">
-        <v>265</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="7"/>
       <c r="B120" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E120" s="9" t="n">
         <v>37.45</v>
       </c>
       <c r="F120" s="9" t="n">
-        <v>224.7</v>
+        <v>1086.05</v>
       </c>
       <c r="G120" s="9" t="n">
         <v>37.45</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I120" s="9" t="n">
         <v>0.0</v>
@@ -6559,7 +6564,7 @@
         <v>0.0</v>
       </c>
       <c r="K120" s="9" t="n">
-        <v>6.0</v>
+        <v>29.0</v>
       </c>
       <c r="L120" s="7" t="s">
         <v>34</v>
@@ -6568,76 +6573,78 @@
         <v>20</v>
       </c>
       <c r="N120" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="O120" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="O120" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="7" t="s">
+      <c r="C121" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E121" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="F121" s="9" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="G121" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I121" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J121" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K121" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L121" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N121" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E121" s="9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F121" s="9" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="G121" s="9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I121" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J121" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K121" s="9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L121" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M121" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N121" s="7"/>
       <c r="O121" s="7" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C122" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C122" s="7"/>
       <c r="D122" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E122" s="9" t="n">
-        <v>7.64</v>
+        <v>3.2</v>
       </c>
       <c r="F122" s="9" t="n">
-        <v>7.64</v>
+        <v>25.6</v>
       </c>
       <c r="G122" s="9" t="n">
-        <v>7.64</v>
+        <v>3.2</v>
       </c>
       <c r="H122" s="7" t="s">
         <v>65</v>
@@ -6649,7 +6656,7 @@
         <v>0.0</v>
       </c>
       <c r="K122" s="9" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="L122" s="7" t="s">
         <v>57</v>
@@ -6663,27 +6670,27 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="7"/>
+      <c r="A123" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="B123" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C123" s="7" t="s">
-        <v>263</v>
-      </c>
+      <c r="C123" s="7"/>
       <c r="D123" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E123" s="9" t="n">
-        <v>37.45</v>
+        <v>7.64</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>1572.9</v>
+        <v>45.84</v>
       </c>
       <c r="G123" s="9" t="n">
-        <v>37.45</v>
+        <v>7.64</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>274</v>
+        <v>65</v>
       </c>
       <c r="I123" s="9" t="n">
         <v>0.0</v>
@@ -6692,39 +6699,41 @@
         <v>0.0</v>
       </c>
       <c r="K123" s="9" t="n">
-        <v>42.0</v>
+        <v>6.0</v>
       </c>
       <c r="L123" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M123" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
+      <c r="O123" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="7"/>
       <c r="B124" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E124" s="9" t="n">
         <v>37.45</v>
       </c>
       <c r="F124" s="9" t="n">
-        <v>1310.75</v>
+        <v>1572.9</v>
       </c>
       <c r="G124" s="9" t="n">
         <v>37.45</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="I124" s="9" t="n">
         <v>0.0</v>
@@ -6733,7 +6742,7 @@
         <v>0.0</v>
       </c>
       <c r="K124" s="9" t="n">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
       <c r="L124" s="7" t="s">
         <v>34</v>
@@ -6741,80 +6750,76 @@
       <c r="M124" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N124" s="7" t="s">
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="O124" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="7" t="s">
+      <c r="C125" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E125" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="F125" s="9" t="n">
+        <v>1310.75</v>
+      </c>
+      <c r="G125" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I125" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J125" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K125" s="9" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="L125" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M125" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N125" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E125" s="9" t="n">
-        <v>8.53</v>
-      </c>
-      <c r="F125" s="9" t="n">
-        <v>59.71</v>
-      </c>
-      <c r="G125" s="9" t="n">
-        <v>8.53</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I125" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J125" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K125" s="9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="L125" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M125" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N125" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="O125" s="7" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E126" s="9" t="n">
-        <v>272.85</v>
+        <v>8.53</v>
       </c>
       <c r="F126" s="9" t="n">
-        <v>545.7</v>
+        <v>59.71</v>
       </c>
       <c r="G126" s="9" t="n">
-        <v>272.85</v>
+        <v>8.53</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="I126" s="9" t="n">
         <v>0.0</v>
@@ -6823,39 +6828,43 @@
         <v>0.0</v>
       </c>
       <c r="K126" s="9" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M126" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N126" s="7"/>
+      <c r="N126" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="O126" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="7"/>
+      <c r="A127" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="B127" s="7" t="s">
         <v>282</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E127" s="9" t="n">
-        <v>55.64</v>
+        <v>272.85</v>
       </c>
       <c r="F127" s="9" t="n">
-        <v>778.96</v>
+        <v>545.7</v>
       </c>
       <c r="G127" s="9" t="n">
-        <v>55.64</v>
+        <v>272.85</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I127" s="9" t="n">
         <v>0.0</v>
@@ -6864,43 +6873,39 @@
         <v>0.0</v>
       </c>
       <c r="K127" s="9" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M127" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N127" s="7" t="s">
+      <c r="N127" s="7"/>
+      <c r="O127" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="O127" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E128" s="9" t="n">
-        <v>373.43</v>
+        <v>55.64</v>
       </c>
       <c r="F128" s="9" t="n">
-        <v>0.0</v>
+        <v>778.96</v>
       </c>
       <c r="G128" s="9" t="n">
-        <v>373.43</v>
+        <v>55.64</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I128" s="9" t="n">
         <v>0.0</v>
@@ -6909,41 +6914,43 @@
         <v>0.0</v>
       </c>
       <c r="K128" s="9" t="n">
-        <v>-1.0</v>
+        <v>14.0</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M128" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N128" s="7"/>
+      <c r="N128" s="7" t="s">
+        <v>284</v>
+      </c>
       <c r="O128" s="7" t="s">
-        <v>54</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E129" s="9" t="n">
         <v>373.43</v>
       </c>
       <c r="F129" s="9" t="n">
-        <v>373.43</v>
+        <v>0.0</v>
       </c>
       <c r="G129" s="9" t="n">
         <v>373.43</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I129" s="9" t="n">
         <v>0.0</v>
@@ -6952,7 +6959,7 @@
         <v>0.0</v>
       </c>
       <c r="K129" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L129" s="7" t="s">
         <v>47</v>
@@ -6966,25 +6973,27 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="7"/>
+      <c r="A130" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="B130" s="7" t="s">
         <v>289</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E130" s="9" t="n">
-        <v>454.0</v>
+        <v>373.43</v>
       </c>
       <c r="F130" s="9" t="n">
-        <v>454.0</v>
+        <v>373.43</v>
       </c>
       <c r="G130" s="9" t="n">
-        <v>454.0</v>
+        <v>373.43</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I130" s="9" t="n">
         <v>0.0</v>
@@ -7003,7 +7012,7 @@
       </c>
       <c r="N130" s="7"/>
       <c r="O130" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131">
@@ -7013,7 +7022,7 @@
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E131" s="9" t="n">
         <v>454.0</v>
@@ -7025,7 +7034,7 @@
         <v>454.0</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I131" s="9" t="n">
         <v>0.0</v>
@@ -7054,19 +7063,19 @@
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E132" s="9" t="n">
-        <v>5.34</v>
+        <v>454.0</v>
       </c>
       <c r="F132" s="9" t="n">
-        <v>26.7</v>
+        <v>454.0</v>
       </c>
       <c r="G132" s="9" t="n">
-        <v>5.34</v>
+        <v>454.0</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="I132" s="9" t="n">
         <v>0.0</v>
@@ -7075,41 +7084,41 @@
         <v>0.0</v>
       </c>
       <c r="K132" s="9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="L132" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M132" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N132" s="7"/>
       <c r="O132" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="C133" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C133" s="7"/>
       <c r="D133" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E133" s="9" t="n">
-        <v>272.85</v>
+        <v>42.8</v>
       </c>
       <c r="F133" s="9" t="n">
-        <v>272.85</v>
+        <v>0.0</v>
       </c>
       <c r="G133" s="9" t="n">
-        <v>272.85</v>
+        <v>42.8</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="I133" s="9" t="n">
         <v>0.0</v>
@@ -7118,17 +7127,17 @@
         <v>0.0</v>
       </c>
       <c r="K133" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L133" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M133" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N133" s="7"/>
       <c r="O133" s="7" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134">
@@ -7138,16 +7147,16 @@
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E134" s="9" t="n">
-        <v>7.29</v>
+        <v>5.34</v>
       </c>
       <c r="F134" s="9" t="n">
-        <v>218.7</v>
+        <v>26.7</v>
       </c>
       <c r="G134" s="9" t="n">
-        <v>7.29</v>
+        <v>5.34</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>65</v>
@@ -7159,17 +7168,17 @@
         <v>0.0</v>
       </c>
       <c r="K134" s="9" t="n">
-        <v>30.0</v>
+        <v>5.0</v>
       </c>
       <c r="L134" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M134" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N134" s="7"/>
       <c r="O134" s="7" t="s">
-        <v>190</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135">
@@ -7181,19 +7190,19 @@
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E135" s="9" t="n">
-        <v>18.18</v>
+        <v>272.85</v>
       </c>
       <c r="F135" s="9" t="n">
-        <v>145.44</v>
+        <v>272.85</v>
       </c>
       <c r="G135" s="9" t="n">
-        <v>18.18</v>
+        <v>272.85</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I135" s="9" t="n">
         <v>0.0</v>
@@ -7202,17 +7211,17 @@
         <v>0.0</v>
       </c>
       <c r="K135" s="9" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="M135" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N135" s="7"/>
       <c r="O135" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="136">
@@ -7220,23 +7229,21 @@
       <c r="B136" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C136" s="7" t="s">
-        <v>263</v>
-      </c>
+      <c r="C136" s="7"/>
       <c r="D136" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E136" s="9" t="n">
-        <v>20.0</v>
+        <v>7.29</v>
       </c>
       <c r="F136" s="9" t="n">
-        <v>200.0</v>
+        <v>218.7</v>
       </c>
       <c r="G136" s="9" t="n">
-        <v>20.0</v>
+        <v>7.29</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="I136" s="9" t="n">
         <v>0.0</v>
@@ -7245,7 +7252,7 @@
         <v>0.0</v>
       </c>
       <c r="K136" s="9" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="L136" s="7" t="s">
         <v>34</v>
@@ -7253,35 +7260,33 @@
       <c r="M136" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N136" s="7" t="s">
+      <c r="N136" s="7"/>
+      <c r="O136" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O136" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="7"/>
       <c r="B137" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C137" s="7" t="s">
-        <v>263</v>
-      </c>
+      <c r="C137" s="7"/>
       <c r="D137" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E137" s="9" t="n">
-        <v>10.69</v>
+        <v>18.18</v>
       </c>
       <c r="F137" s="9" t="n">
-        <v>363.46</v>
+        <v>145.44</v>
       </c>
       <c r="G137" s="9" t="n">
-        <v>10.69</v>
+        <v>18.18</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I137" s="9" t="n">
         <v>0.0</v>
@@ -7290,124 +7295,126 @@
         <v>0.0</v>
       </c>
       <c r="K137" s="9" t="n">
-        <v>34.0</v>
+        <v>8.0</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="M137" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N137" s="7" t="s">
-        <v>300</v>
-      </c>
+      <c r="N137" s="7"/>
       <c r="O137" s="7" t="s">
-        <v>265</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7"/>
       <c r="B138" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E138" s="9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F138" s="9" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="G138" s="9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I138" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J138" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K138" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L138" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M138" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N138" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E138" s="9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F138" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G138" s="9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I138" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J138" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K138" s="9" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="L138" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M138" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N138" s="7"/>
-      <c r="O138" s="7"/>
+      <c r="O138" s="7" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="C139" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E139" s="9" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="F139" s="9" t="n">
+        <v>299.32</v>
+      </c>
+      <c r="G139" s="9" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I139" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J139" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K139" s="9" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="L139" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M139" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N139" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="O139" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7"/>
+      <c r="B140" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E139" s="9" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="F139" s="9" t="n">
-        <v>176.4</v>
-      </c>
-      <c r="G139" s="9" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I139" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J139" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K139" s="9" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L139" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M139" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N139" s="7"/>
-      <c r="O139" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="E140" s="9" t="n">
-        <v>3.19</v>
+        <v>5.0</v>
       </c>
       <c r="F140" s="9" t="n">
-        <v>38.28</v>
+        <v>0.0</v>
       </c>
       <c r="G140" s="9" t="n">
-        <v>3.19</v>
+        <v>5.0</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>65</v>
@@ -7419,38 +7426,38 @@
         <v>0.0</v>
       </c>
       <c r="K140" s="9" t="n">
-        <v>12.0</v>
+        <v>-1.0</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M140" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N140" s="7"/>
-      <c r="O140" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="O140" s="7"/>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="E141" s="9" t="n">
-        <v>3.83</v>
+        <v>11.76</v>
       </c>
       <c r="F141" s="9" t="n">
-        <v>118.73</v>
+        <v>70.56</v>
       </c>
       <c r="G141" s="9" t="n">
-        <v>3.83</v>
+        <v>11.76</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>65</v>
@@ -7462,10 +7469,10 @@
         <v>0.0</v>
       </c>
       <c r="K141" s="9" t="n">
-        <v>31.0</v>
+        <v>6.0</v>
       </c>
       <c r="L141" s="7" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="M141" s="7" t="s">
         <v>20</v>
@@ -7477,26 +7484,26 @@
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E142" s="9" t="n">
-        <v>127.33</v>
+        <v>3.19</v>
       </c>
       <c r="F142" s="9" t="n">
-        <v>509.32</v>
+        <v>38.28</v>
       </c>
       <c r="G142" s="9" t="n">
-        <v>127.33</v>
+        <v>3.19</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="I142" s="9" t="n">
         <v>0.0</v>
@@ -7505,7 +7512,7 @@
         <v>0.0</v>
       </c>
       <c r="K142" s="9" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="L142" s="7" t="s">
         <v>57</v>
@@ -7520,26 +7527,26 @@
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E143" s="9" t="n">
-        <v>127.33</v>
+        <v>3.83</v>
       </c>
       <c r="F143" s="9" t="n">
-        <v>254.66</v>
+        <v>118.73</v>
       </c>
       <c r="G143" s="9" t="n">
-        <v>127.33</v>
+        <v>3.83</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="I143" s="9" t="n">
         <v>0.0</v>
@@ -7548,7 +7555,7 @@
         <v>0.0</v>
       </c>
       <c r="K143" s="9" t="n">
-        <v>2.0</v>
+        <v>31.0</v>
       </c>
       <c r="L143" s="7" t="s">
         <v>57</v>
@@ -7563,26 +7570,26 @@
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E144" s="9" t="n">
-        <v>11.22</v>
+        <v>127.33</v>
       </c>
       <c r="F144" s="9" t="n">
-        <v>145.86</v>
+        <v>509.32</v>
       </c>
       <c r="G144" s="9" t="n">
-        <v>11.22</v>
+        <v>127.33</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I144" s="9" t="n">
         <v>0.0</v>
@@ -7591,7 +7598,7 @@
         <v>0.0</v>
       </c>
       <c r="K144" s="9" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="L144" s="7" t="s">
         <v>57</v>
@@ -7599,35 +7606,33 @@
       <c r="M144" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N144" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="N144" s="7"/>
       <c r="O144" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E145" s="9" t="n">
-        <v>10.15</v>
+        <v>127.33</v>
       </c>
       <c r="F145" s="9" t="n">
-        <v>466.9</v>
+        <v>254.66</v>
       </c>
       <c r="G145" s="9" t="n">
-        <v>10.15</v>
+        <v>127.33</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I145" s="9" t="n">
         <v>0.0</v>
@@ -7636,43 +7641,41 @@
         <v>0.0</v>
       </c>
       <c r="K145" s="9" t="n">
-        <v>46.0</v>
+        <v>2.0</v>
       </c>
       <c r="L145" s="7" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="M145" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N145" s="7" t="s">
-        <v>319</v>
-      </c>
+      <c r="N145" s="7"/>
       <c r="O145" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="7"/>
+      <c r="A146" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="B146" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>321</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C146" s="7"/>
       <c r="D146" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E146" s="9" t="n">
-        <v>75.0</v>
+        <v>11.22</v>
       </c>
       <c r="F146" s="9" t="n">
-        <v>1725.0</v>
+        <v>145.86</v>
       </c>
       <c r="G146" s="9" t="n">
-        <v>75.0</v>
+        <v>11.22</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="I146" s="9" t="n">
         <v>0.0</v>
@@ -7681,7 +7684,7 @@
         <v>0.0</v>
       </c>
       <c r="K146" s="9" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="L146" s="7" t="s">
         <v>57</v>
@@ -7689,85 +7692,89 @@
       <c r="M146" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N146" s="7"/>
+      <c r="N146" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="O146" s="7" t="s">
-        <v>322</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E147" s="9" t="n">
-        <v>10.68</v>
+        <v>10.15</v>
       </c>
       <c r="F147" s="9" t="n">
-        <v>245.64</v>
+        <v>466.9</v>
       </c>
       <c r="G147" s="9" t="n">
-        <v>10.68</v>
+        <v>10.15</v>
       </c>
       <c r="H147" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I147" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J147" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K147" s="9" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="L147" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M147" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N147" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="O147" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7"/>
+      <c r="B148" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E148" s="9" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F148" s="9" t="n">
+        <v>1725.0</v>
+      </c>
+      <c r="G148" s="9" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="H148" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I147" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J147" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K147" s="9" t="n">
+      <c r="I148" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J148" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K148" s="9" t="n">
         <v>23.0</v>
-      </c>
-      <c r="L147" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M147" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N147" s="7"/>
-      <c r="O147" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E148" s="9" t="n">
-        <v>46.86</v>
-      </c>
-      <c r="F148" s="9" t="n">
-        <v>140.58</v>
-      </c>
-      <c r="G148" s="9" t="n">
-        <v>46.86</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="I148" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J148" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K148" s="9" t="n">
-        <v>3.0</v>
       </c>
       <c r="L148" s="7" t="s">
         <v>57</v>
@@ -7777,28 +7784,28 @@
       </c>
       <c r="N148" s="7"/>
       <c r="O148" s="7" t="s">
-        <v>54</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="7"/>
+      <c r="A149" s="7" t="s">
+        <v>326</v>
+      </c>
       <c r="B149" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>321</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C149" s="7"/>
       <c r="D149" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E149" s="9" t="n">
-        <v>75.0</v>
+        <v>10.68</v>
       </c>
       <c r="F149" s="9" t="n">
-        <v>600.0</v>
+        <v>181.56</v>
       </c>
       <c r="G149" s="9" t="n">
-        <v>75.0</v>
+        <v>10.68</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>65</v>
@@ -7810,81 +7817,81 @@
         <v>0.0</v>
       </c>
       <c r="K149" s="9" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="L149" s="7" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="M149" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N149" s="7"/>
       <c r="O149" s="7" t="s">
-        <v>322</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="7"/>
+      <c r="A150" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="B150" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="7"/>
+      <c r="D150" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E150" s="9" t="n">
+        <v>46.86</v>
+      </c>
+      <c r="F150" s="9" t="n">
+        <v>656.04</v>
+      </c>
+      <c r="G150" s="9" t="n">
+        <v>46.86</v>
+      </c>
+      <c r="H150" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="D150" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E150" s="9" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="F150" s="9" t="n">
-        <v>2700.0</v>
-      </c>
-      <c r="G150" s="9" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H150" s="7" t="s">
+      <c r="I150" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J150" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K150" s="9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L150" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M150" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N150" s="7"/>
+      <c r="O150" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="7"/>
+      <c r="B151" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="I150" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J150" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K150" s="9" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L150" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M150" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N150" s="7"/>
-      <c r="O150" s="7"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="C151" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E151" s="9" t="n">
-        <v>10.15</v>
+        <v>75.0</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>40.6</v>
+        <v>600.0</v>
       </c>
       <c r="G151" s="9" t="n">
-        <v>10.15</v>
+        <v>75.0</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>65</v>
@@ -7896,43 +7903,41 @@
         <v>0.0</v>
       </c>
       <c r="K151" s="9" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M151" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N151" s="7"/>
       <c r="O151" s="7" t="s">
-        <v>54</v>
+        <v>325</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="7" t="s">
-        <v>335</v>
-      </c>
+      <c r="A152" s="7"/>
       <c r="B152" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E152" s="9" t="n">
-        <v>0.39</v>
+        <v>100.0</v>
       </c>
       <c r="F152" s="9" t="n">
-        <v>19.5</v>
+        <v>2700.0</v>
       </c>
       <c r="G152" s="9" t="n">
-        <v>0.39</v>
+        <v>100.0</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>65</v>
+        <v>334</v>
       </c>
       <c r="I152" s="9" t="n">
         <v>0.0</v>
@@ -7941,7 +7946,7 @@
         <v>0.0</v>
       </c>
       <c r="K152" s="9" t="n">
-        <v>50.0</v>
+        <v>27.0</v>
       </c>
       <c r="L152" s="7" t="s">
         <v>34</v>
@@ -7950,31 +7955,29 @@
         <v>20</v>
       </c>
       <c r="N152" s="7"/>
-      <c r="O152" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="O152" s="7"/>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E153" s="9" t="n">
-        <v>0.38</v>
+        <v>10.15</v>
       </c>
       <c r="F153" s="9" t="n">
-        <v>7.6</v>
+        <v>243.6</v>
       </c>
       <c r="G153" s="9" t="n">
-        <v>0.38</v>
+        <v>10.15</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>65</v>
@@ -7986,7 +7989,7 @@
         <v>0.0</v>
       </c>
       <c r="K153" s="9" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="L153" s="7" t="s">
         <v>34</v>
@@ -8001,26 +8004,28 @@
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C154" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C154" s="7"/>
       <c r="D154" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E154" s="9" t="n">
-        <v>25.67</v>
+        <v>0.39</v>
       </c>
       <c r="F154" s="9" t="n">
-        <v>205.36</v>
+        <v>19.5</v>
       </c>
       <c r="G154" s="9" t="n">
-        <v>25.67</v>
+        <v>0.39</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I154" s="9" t="n">
         <v>0.0</v>
@@ -8029,10 +8034,10 @@
         <v>0.0</v>
       </c>
       <c r="K154" s="9" t="n">
-        <v>8.0</v>
+        <v>50.0</v>
       </c>
       <c r="L154" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M154" s="7" t="s">
         <v>20</v>
@@ -8044,23 +8049,25 @@
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B155" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C155" s="7"/>
+      <c r="C155" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="D155" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E155" s="9" t="n">
-        <v>12.82</v>
+        <v>0.38</v>
       </c>
       <c r="F155" s="9" t="n">
-        <v>205.12</v>
+        <v>7.6</v>
       </c>
       <c r="G155" s="9" t="n">
-        <v>12.82</v>
+        <v>0.38</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>65</v>
@@ -8072,10 +8079,10 @@
         <v>0.0</v>
       </c>
       <c r="K155" s="9" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="L155" s="7" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="M155" s="7" t="s">
         <v>20</v>
@@ -8087,26 +8094,26 @@
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E156" s="9" t="n">
-        <v>12.29</v>
+        <v>25.67</v>
       </c>
       <c r="F156" s="9" t="n">
-        <v>122.9</v>
+        <v>205.36</v>
       </c>
       <c r="G156" s="9" t="n">
-        <v>12.29</v>
+        <v>25.67</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I156" s="9" t="n">
         <v>0.0</v>
@@ -8115,10 +8122,10 @@
         <v>0.0</v>
       </c>
       <c r="K156" s="9" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="L156" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M156" s="7" t="s">
         <v>20</v>
@@ -8130,23 +8137,23 @@
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E157" s="9" t="n">
-        <v>14.41</v>
+        <v>12.82</v>
       </c>
       <c r="F157" s="9" t="n">
-        <v>230.56</v>
+        <v>128.2</v>
       </c>
       <c r="G157" s="9" t="n">
-        <v>14.41</v>
+        <v>12.82</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>65</v>
@@ -8158,10 +8165,10 @@
         <v>0.0</v>
       </c>
       <c r="K157" s="9" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="L157" s="7" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="M157" s="7" t="s">
         <v>20</v>
@@ -8173,28 +8180,26 @@
     </row>
     <row r="158">
       <c r="A158" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>350</v>
-      </c>
+      <c r="C158" s="7"/>
       <c r="D158" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E158" s="9" t="n">
-        <v>32.88</v>
+        <v>12.29</v>
       </c>
       <c r="F158" s="9" t="n">
-        <v>164.4</v>
+        <v>122.9</v>
       </c>
       <c r="G158" s="9" t="n">
-        <v>32.88</v>
+        <v>12.29</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="I158" s="9" t="n">
         <v>0.0</v>
@@ -8203,43 +8208,41 @@
         <v>0.0</v>
       </c>
       <c r="K158" s="9" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="L158" s="7" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="M158" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N158" s="7"/>
       <c r="O158" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>353</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C159" s="7"/>
       <c r="D159" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E159" s="9" t="n">
-        <v>22.79</v>
+        <v>14.41</v>
       </c>
       <c r="F159" s="9" t="n">
-        <v>319.06</v>
+        <v>230.56</v>
       </c>
       <c r="G159" s="9" t="n">
-        <v>22.79</v>
+        <v>14.41</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="I159" s="9" t="n">
         <v>0.0</v>
@@ -8248,43 +8251,43 @@
         <v>0.0</v>
       </c>
       <c r="K159" s="9" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="L159" s="7" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="M159" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N159" s="7"/>
       <c r="O159" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E160" s="9" t="n">
-        <v>0.39</v>
+        <v>32.88</v>
       </c>
       <c r="F160" s="9" t="n">
-        <v>23.4</v>
+        <v>164.4</v>
       </c>
       <c r="G160" s="9" t="n">
-        <v>0.39</v>
+        <v>32.88</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="I160" s="9" t="n">
         <v>0.0</v>
@@ -8293,43 +8296,43 @@
         <v>0.0</v>
       </c>
       <c r="K160" s="9" t="n">
-        <v>60.0</v>
+        <v>5.0</v>
       </c>
       <c r="L160" s="7" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="M160" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N160" s="7"/>
       <c r="O160" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C161" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B161" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="D161" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E161" s="9" t="n">
-        <v>0.38</v>
+        <v>22.79</v>
       </c>
       <c r="F161" s="9" t="n">
-        <v>10.64</v>
+        <v>319.06</v>
       </c>
       <c r="G161" s="9" t="n">
-        <v>0.38</v>
+        <v>22.79</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="I161" s="9" t="n">
         <v>0.0</v>
@@ -8338,38 +8341,40 @@
         <v>0.0</v>
       </c>
       <c r="K161" s="9" t="n">
-        <v>28.0</v>
+        <v>14.0</v>
       </c>
       <c r="L161" s="7" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="M161" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N161" s="7"/>
       <c r="O161" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B162" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C162" s="7"/>
+      <c r="C162" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="D162" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E162" s="9" t="n">
-        <v>7.46</v>
+        <v>0.39</v>
       </c>
       <c r="F162" s="9" t="n">
-        <v>59.68</v>
+        <v>23.4</v>
       </c>
       <c r="G162" s="9" t="n">
-        <v>7.46</v>
+        <v>0.39</v>
       </c>
       <c r="H162" s="7" t="s">
         <v>65</v>
@@ -8381,10 +8386,10 @@
         <v>0.0</v>
       </c>
       <c r="K162" s="9" t="n">
-        <v>8.0</v>
+        <v>60.0</v>
       </c>
       <c r="L162" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M162" s="7" t="s">
         <v>20</v>
@@ -8396,23 +8401,25 @@
     </row>
     <row r="163">
       <c r="A163" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B163" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B163" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C163" s="7"/>
+      <c r="C163" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="D163" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E163" s="9" t="n">
-        <v>3.19</v>
+        <v>0.38</v>
       </c>
       <c r="F163" s="9" t="n">
-        <v>6.38</v>
+        <v>9.88</v>
       </c>
       <c r="G163" s="9" t="n">
-        <v>3.19</v>
+        <v>0.38</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>65</v>
@@ -8424,10 +8431,10 @@
         <v>0.0</v>
       </c>
       <c r="K163" s="9" t="n">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
       <c r="L163" s="7" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="M163" s="7" t="s">
         <v>20</v>
@@ -8439,23 +8446,23 @@
     </row>
     <row r="164">
       <c r="A164" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B164" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E164" s="9" t="n">
-        <v>3.18</v>
+        <v>7.46</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>47.7</v>
+        <v>201.42</v>
       </c>
       <c r="G164" s="9" t="n">
-        <v>3.18</v>
+        <v>7.46</v>
       </c>
       <c r="H164" s="7" t="s">
         <v>65</v>
@@ -8467,7 +8474,7 @@
         <v>0.0</v>
       </c>
       <c r="K164" s="9" t="n">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="L164" s="7" t="s">
         <v>23</v>
@@ -8482,26 +8489,26 @@
     </row>
     <row r="165">
       <c r="A165" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B165" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="7" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="E165" s="9" t="n">
-        <v>3.95</v>
+        <v>3.19</v>
       </c>
       <c r="F165" s="9" t="n">
-        <v>86.9</v>
+        <v>35.09</v>
       </c>
       <c r="G165" s="9" t="n">
-        <v>3.95</v>
+        <v>3.19</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>367</v>
+        <v>65</v>
       </c>
       <c r="I165" s="9" t="n">
         <v>0.0</v>
@@ -8510,10 +8517,10 @@
         <v>0.0</v>
       </c>
       <c r="K165" s="9" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="L165" s="7" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="M165" s="7" t="s">
         <v>20</v>
@@ -8525,26 +8532,26 @@
     </row>
     <row r="166">
       <c r="A166" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C166" s="7"/>
       <c r="D166" s="7" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="E166" s="9" t="n">
-        <v>8.55</v>
+        <v>3.18</v>
       </c>
       <c r="F166" s="9" t="n">
-        <v>128.25</v>
+        <v>47.7</v>
       </c>
       <c r="G166" s="9" t="n">
-        <v>8.55</v>
+        <v>3.18</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>367</v>
+        <v>65</v>
       </c>
       <c r="I166" s="9" t="n">
         <v>0.0</v>
@@ -8568,204 +8575,204 @@
     </row>
     <row r="167">
       <c r="A167" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E167" s="9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F167" s="9" t="n">
+        <v>82.95</v>
+      </c>
+      <c r="G167" s="9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H167" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B167" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E167" s="9" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="F167" s="9" t="n">
-        <v>453.2</v>
-      </c>
-      <c r="G167" s="9" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>367</v>
-      </c>
       <c r="I167" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="J167" s="9" t="n">
-        <v>0.74</v>
+        <v>0.0</v>
       </c>
       <c r="K167" s="9" t="n">
-        <v>55.0</v>
+        <v>21.0</v>
       </c>
       <c r="L167" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M167" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N167" s="7"/>
       <c r="O167" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>374</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C168" s="7"/>
       <c r="D168" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E168" s="9" t="n">
-        <v>5.99</v>
+        <v>8.55</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>155.74</v>
+        <v>76.95</v>
       </c>
       <c r="G168" s="9" t="n">
-        <v>6.59</v>
+        <v>8.55</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I168" s="9" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="J168" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="K168" s="9" t="n">
-        <v>26.0</v>
+        <v>9.0</v>
       </c>
       <c r="L168" s="7" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="M168" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N168" s="7" t="s">
-        <v>375</v>
-      </c>
+      <c r="N168" s="7"/>
       <c r="O168" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C169" s="7"/>
+        <v>374</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>375</v>
+      </c>
       <c r="D169" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E169" s="9" t="n">
-        <v>9.62</v>
+        <v>8.24</v>
       </c>
       <c r="F169" s="9" t="n">
-        <v>48.1</v>
+        <v>453.2</v>
       </c>
       <c r="G169" s="9" t="n">
-        <v>9.62</v>
+        <v>8.98</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I169" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="J169" s="9" t="n">
-        <v>0.0</v>
+        <v>0.74</v>
       </c>
       <c r="K169" s="9" t="n">
-        <v>5.0</v>
+        <v>55.0</v>
       </c>
       <c r="L169" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M169" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N169" s="7"/>
       <c r="O169" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E170" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F170" s="9" t="n">
+        <v>149.75</v>
+      </c>
+      <c r="G170" s="9" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I170" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J170" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K170" s="9" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L170" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M170" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N170" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B170" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E170" s="9" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="F170" s="9" t="n">
-        <v>269.94</v>
-      </c>
-      <c r="G170" s="9" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="H170" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="I170" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J170" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K170" s="9" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L170" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M170" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N170" s="7"/>
       <c r="O170" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E171" s="9" t="n">
-        <v>8.84</v>
+        <v>9.62</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>106.08</v>
+        <v>48.1</v>
       </c>
       <c r="G171" s="9" t="n">
-        <v>8.84</v>
+        <v>9.62</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I171" s="9" t="n">
         <v>0.0</v>
@@ -8774,41 +8781,41 @@
         <v>0.0</v>
       </c>
       <c r="K171" s="9" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="L171" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M171" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N171" s="7"/>
       <c r="O171" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E172" s="9" t="n">
-        <v>5.33</v>
+        <v>12.27</v>
       </c>
       <c r="F172" s="9" t="n">
-        <v>95.94</v>
+        <v>220.86</v>
       </c>
       <c r="G172" s="9" t="n">
-        <v>5.33</v>
+        <v>12.27</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I172" s="9" t="n">
         <v>0.0</v>
@@ -8827,31 +8834,31 @@
       </c>
       <c r="N172" s="7"/>
       <c r="O172" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E173" s="9" t="n">
-        <v>8.55</v>
+        <v>8.84</v>
       </c>
       <c r="F173" s="9" t="n">
-        <v>102.6</v>
+        <v>106.08</v>
       </c>
       <c r="G173" s="9" t="n">
-        <v>8.55</v>
+        <v>8.84</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I173" s="9" t="n">
         <v>0.0</v>
@@ -8875,26 +8882,26 @@
     </row>
     <row r="174">
       <c r="A174" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B174" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E174" s="9" t="n">
-        <v>4.78</v>
+        <v>5.33</v>
       </c>
       <c r="F174" s="9" t="n">
-        <v>86.04</v>
+        <v>95.94</v>
       </c>
       <c r="G174" s="9" t="n">
-        <v>4.78</v>
+        <v>5.33</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I174" s="9" t="n">
         <v>0.0</v>
@@ -8906,36 +8913,38 @@
         <v>18.0</v>
       </c>
       <c r="L174" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M174" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N174" s="7"/>
       <c r="O174" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="7"/>
+      <c r="A175" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="B175" s="7" t="s">
         <v>388</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E175" s="9" t="n">
-        <v>21.2</v>
+        <v>8.55</v>
       </c>
       <c r="F175" s="9" t="n">
-        <v>636.0</v>
+        <v>102.6</v>
       </c>
       <c r="G175" s="9" t="n">
-        <v>21.2</v>
+        <v>8.55</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I175" s="9" t="n">
         <v>0.0</v>
@@ -8944,17 +8953,17 @@
         <v>0.0</v>
       </c>
       <c r="K175" s="9" t="n">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="L175" s="7" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="M175" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N175" s="7"/>
       <c r="O175" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="176">
@@ -8966,19 +8975,19 @@
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E176" s="9" t="n">
-        <v>10.56</v>
+        <v>4.78</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>84.48</v>
+        <v>86.04</v>
       </c>
       <c r="G176" s="9" t="n">
-        <v>10.56</v>
+        <v>4.78</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I176" s="9" t="n">
         <v>0.0</v>
@@ -8987,41 +8996,39 @@
         <v>0.0</v>
       </c>
       <c r="K176" s="9" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="L176" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M176" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N176" s="7"/>
       <c r="O176" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="7" t="s">
+      <c r="A177" s="7"/>
+      <c r="B177" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E177" s="9" t="n">
-        <v>21.39</v>
+        <v>21.2</v>
       </c>
       <c r="F177" s="9" t="n">
-        <v>513.36</v>
+        <v>636.0</v>
       </c>
       <c r="G177" s="9" t="n">
-        <v>21.39</v>
+        <v>21.2</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="I177" s="9" t="n">
         <v>0.0</v>
@@ -9030,43 +9037,41 @@
         <v>0.0</v>
       </c>
       <c r="K177" s="9" t="n">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="L177" s="7" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="M177" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N177" s="7" t="s">
-        <v>394</v>
-      </c>
+      <c r="N177" s="7"/>
       <c r="O177" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E178" s="9" t="n">
-        <v>11.76</v>
+        <v>10.56</v>
       </c>
       <c r="F178" s="9" t="n">
-        <v>199.92</v>
+        <v>84.48</v>
       </c>
       <c r="G178" s="9" t="n">
-        <v>11.76</v>
+        <v>10.56</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I178" s="9" t="n">
         <v>0.0</v>
@@ -9075,41 +9080,41 @@
         <v>0.0</v>
       </c>
       <c r="K178" s="9" t="n">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="L178" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M178" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N178" s="7"/>
       <c r="O178" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C179" s="7"/>
       <c r="D179" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E179" s="9" t="n">
-        <v>6.41</v>
+        <v>21.39</v>
       </c>
       <c r="F179" s="9" t="n">
-        <v>57.69</v>
+        <v>449.19</v>
       </c>
       <c r="G179" s="9" t="n">
-        <v>6.41</v>
+        <v>21.39</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="I179" s="9" t="n">
         <v>0.0</v>
@@ -9118,43 +9123,43 @@
         <v>0.0</v>
       </c>
       <c r="K179" s="9" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="L179" s="7" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="M179" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N179" s="7"/>
+      <c r="N179" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="O179" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B180" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>161</v>
-      </c>
+      <c r="C180" s="7"/>
       <c r="D180" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E180" s="9" t="n">
-        <v>1.31</v>
+        <v>11.76</v>
       </c>
       <c r="F180" s="9" t="n">
-        <v>100.87</v>
+        <v>199.92</v>
       </c>
       <c r="G180" s="9" t="n">
-        <v>1.31</v>
+        <v>11.76</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I180" s="9" t="n">
         <v>0.0</v>
@@ -9163,41 +9168,41 @@
         <v>0.0</v>
       </c>
       <c r="K180" s="9" t="n">
-        <v>77.0</v>
+        <v>17.0</v>
       </c>
       <c r="L180" s="7" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="M180" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N180" s="7"/>
       <c r="O180" s="7" t="s">
-        <v>401</v>
+        <v>54</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E181" s="9" t="n">
-        <v>9.61</v>
+        <v>6.41</v>
       </c>
       <c r="F181" s="9" t="n">
-        <v>201.81</v>
+        <v>32.05</v>
       </c>
       <c r="G181" s="9" t="n">
-        <v>9.61</v>
+        <v>6.41</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I181" s="9" t="n">
         <v>0.0</v>
@@ -9206,10 +9211,10 @@
         <v>0.0</v>
       </c>
       <c r="K181" s="9" t="n">
-        <v>21.0</v>
+        <v>5.0</v>
       </c>
       <c r="L181" s="7" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="M181" s="7" t="s">
         <v>20</v>
@@ -9221,28 +9226,28 @@
     </row>
     <row r="182">
       <c r="A182" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E182" s="9" t="n">
-        <v>4.26</v>
+        <v>1.31</v>
       </c>
       <c r="F182" s="9" t="n">
-        <v>132.06</v>
+        <v>90.39</v>
       </c>
       <c r="G182" s="9" t="n">
-        <v>4.26</v>
+        <v>1.31</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I182" s="9" t="n">
         <v>0.0</v>
@@ -9251,41 +9256,41 @@
         <v>0.0</v>
       </c>
       <c r="K182" s="9" t="n">
-        <v>31.0</v>
+        <v>69.0</v>
       </c>
       <c r="L182" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M182" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N182" s="7"/>
       <c r="O182" s="7" t="s">
-        <v>54</v>
+        <v>404</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B183" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E183" s="9" t="n">
-        <v>37.66</v>
+        <v>9.61</v>
       </c>
       <c r="F183" s="9" t="n">
-        <v>941.5</v>
+        <v>201.81</v>
       </c>
       <c r="G183" s="9" t="n">
-        <v>37.66</v>
+        <v>9.61</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I183" s="9" t="n">
         <v>0.0</v>
@@ -9294,7 +9299,7 @@
         <v>0.0</v>
       </c>
       <c r="K183" s="9" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="L183" s="7" t="s">
         <v>23</v>
@@ -9304,33 +9309,33 @@
       </c>
       <c r="N183" s="7"/>
       <c r="O183" s="7" t="s">
-        <v>401</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B184" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B184" s="7" t="s">
-        <v>409</v>
-      </c>
       <c r="C184" s="7" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E184" s="9" t="n">
-        <v>2.32</v>
+        <v>4.26</v>
       </c>
       <c r="F184" s="9" t="n">
-        <v>18.56</v>
+        <v>127.8</v>
       </c>
       <c r="G184" s="9" t="n">
-        <v>2.32</v>
+        <v>4.26</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I184" s="9" t="n">
         <v>0.0</v>
@@ -9339,10 +9344,10 @@
         <v>0.0</v>
       </c>
       <c r="K184" s="9" t="n">
-        <v>8.0</v>
+        <v>30.0</v>
       </c>
       <c r="L184" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M184" s="7" t="s">
         <v>20</v>
@@ -9354,26 +9359,26 @@
     </row>
     <row r="185">
       <c r="A185" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E185" s="9" t="n">
-        <v>9.62</v>
+        <v>37.66</v>
       </c>
       <c r="F185" s="9" t="n">
-        <v>76.96</v>
+        <v>828.52</v>
       </c>
       <c r="G185" s="9" t="n">
-        <v>9.62</v>
+        <v>37.66</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I185" s="9" t="n">
         <v>0.0</v>
@@ -9382,41 +9387,43 @@
         <v>0.0</v>
       </c>
       <c r="K185" s="9" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="L185" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M185" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N185" s="7"/>
       <c r="O185" s="7" t="s">
-        <v>54</v>
+        <v>404</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B186" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B186" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="C186" s="7"/>
+      <c r="C186" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="D186" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E186" s="9" t="n">
-        <v>19.25</v>
+        <v>2.32</v>
       </c>
       <c r="F186" s="9" t="n">
-        <v>462.0</v>
+        <v>18.56</v>
       </c>
       <c r="G186" s="9" t="n">
-        <v>19.25</v>
+        <v>2.32</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I186" s="9" t="n">
         <v>0.0</v>
@@ -9425,10 +9432,10 @@
         <v>0.0</v>
       </c>
       <c r="K186" s="9" t="n">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
       <c r="L186" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M186" s="7" t="s">
         <v>20</v>
@@ -9440,28 +9447,26 @@
     </row>
     <row r="187">
       <c r="A187" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B187" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="B187" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>416</v>
-      </c>
+      <c r="C187" s="7"/>
       <c r="D187" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E187" s="9" t="n">
-        <v>1.28</v>
+        <v>9.62</v>
       </c>
       <c r="F187" s="9" t="n">
-        <v>80.64</v>
+        <v>76.96</v>
       </c>
       <c r="G187" s="9" t="n">
-        <v>1.28</v>
+        <v>9.62</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I187" s="9" t="n">
         <v>0.0</v>
@@ -9470,41 +9475,41 @@
         <v>0.0</v>
       </c>
       <c r="K187" s="9" t="n">
-        <v>63.0</v>
+        <v>8.0</v>
       </c>
       <c r="L187" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M187" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N187" s="7"/>
       <c r="O187" s="7" t="s">
-        <v>401</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E188" s="9" t="n">
-        <v>5.55</v>
+        <v>19.25</v>
       </c>
       <c r="F188" s="9" t="n">
-        <v>61.05</v>
+        <v>327.25</v>
       </c>
       <c r="G188" s="9" t="n">
-        <v>5.55</v>
+        <v>19.25</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="I188" s="9" t="n">
         <v>0.0</v>
@@ -9513,43 +9518,43 @@
         <v>0.0</v>
       </c>
       <c r="K188" s="9" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="L188" s="7" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="M188" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N188" s="7" t="s">
-        <v>419</v>
-      </c>
+      <c r="N188" s="7"/>
       <c r="O188" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C189" s="7"/>
+        <v>418</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>419</v>
+      </c>
       <c r="D189" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E189" s="9" t="n">
-        <v>2.45</v>
+        <v>1.28</v>
       </c>
       <c r="F189" s="9" t="n">
-        <v>78.4</v>
+        <v>75.52</v>
       </c>
       <c r="G189" s="9" t="n">
-        <v>2.45</v>
+        <v>1.28</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I189" s="9" t="n">
         <v>0.0</v>
@@ -9558,7 +9563,7 @@
         <v>0.0</v>
       </c>
       <c r="K189" s="9" t="n">
-        <v>32.0</v>
+        <v>59.0</v>
       </c>
       <c r="L189" s="7" t="s">
         <v>23</v>
@@ -9568,31 +9573,31 @@
       </c>
       <c r="N189" s="7"/>
       <c r="O189" s="7" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E190" s="9" t="n">
-        <v>7.48</v>
+        <v>5.55</v>
       </c>
       <c r="F190" s="9" t="n">
-        <v>52.36</v>
+        <v>61.05</v>
       </c>
       <c r="G190" s="9" t="n">
-        <v>7.48</v>
+        <v>5.55</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="I190" s="9" t="n">
         <v>0.0</v>
@@ -9601,7 +9606,7 @@
         <v>0.0</v>
       </c>
       <c r="K190" s="9" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="L190" s="7" t="s">
         <v>57</v>
@@ -9609,33 +9614,35 @@
       <c r="M190" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N190" s="7"/>
+      <c r="N190" s="7" t="s">
+        <v>422</v>
+      </c>
       <c r="O190" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E191" s="9" t="n">
-        <v>7.48</v>
+        <v>2.45</v>
       </c>
       <c r="F191" s="9" t="n">
-        <v>112.2</v>
+        <v>63.7</v>
       </c>
       <c r="G191" s="9" t="n">
-        <v>7.48</v>
+        <v>2.45</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I191" s="9" t="n">
         <v>0.0</v>
@@ -9644,41 +9651,41 @@
         <v>0.0</v>
       </c>
       <c r="K191" s="9" t="n">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="L191" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M191" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N191" s="7"/>
       <c r="O191" s="7" t="s">
-        <v>54</v>
+        <v>425</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B192" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="C192" s="7"/>
       <c r="D192" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E192" s="9" t="n">
-        <v>73.83</v>
+        <v>7.48</v>
       </c>
       <c r="F192" s="9" t="n">
-        <v>590.64</v>
+        <v>52.36</v>
       </c>
       <c r="G192" s="9" t="n">
-        <v>73.83</v>
+        <v>7.48</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="I192" s="9" t="n">
         <v>0.0</v>
@@ -9687,7 +9694,7 @@
         <v>0.0</v>
       </c>
       <c r="K192" s="9" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="L192" s="7" t="s">
         <v>57</v>
@@ -9702,26 +9709,26 @@
     </row>
     <row r="193">
       <c r="A193" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B193" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="C193" s="7"/>
       <c r="D193" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E193" s="9" t="n">
-        <v>5.34</v>
+        <v>7.48</v>
       </c>
       <c r="F193" s="9" t="n">
-        <v>32.04</v>
+        <v>112.2</v>
       </c>
       <c r="G193" s="9" t="n">
-        <v>5.34</v>
+        <v>7.48</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="I193" s="9" t="n">
         <v>0.0</v>
@@ -9730,43 +9737,41 @@
         <v>0.0</v>
       </c>
       <c r="K193" s="9" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="L193" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M193" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N193" s="7" t="s">
-        <v>431</v>
-      </c>
+      <c r="N193" s="7"/>
       <c r="O193" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C194" s="7"/>
       <c r="D194" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E194" s="9" t="n">
-        <v>11.76</v>
+        <v>73.83</v>
       </c>
       <c r="F194" s="9" t="n">
-        <v>599.76</v>
+        <v>516.81</v>
       </c>
       <c r="G194" s="9" t="n">
-        <v>11.76</v>
+        <v>73.83</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="I194" s="9" t="n">
         <v>0.0</v>
@@ -9775,10 +9780,10 @@
         <v>0.0</v>
       </c>
       <c r="K194" s="9" t="n">
-        <v>51.0</v>
+        <v>7.0</v>
       </c>
       <c r="L194" s="7" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="M194" s="7" t="s">
         <v>20</v>
@@ -9790,26 +9795,26 @@
     </row>
     <row r="195">
       <c r="A195" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E195" s="9" t="n">
-        <v>105.93</v>
+        <v>5.34</v>
       </c>
       <c r="F195" s="9" t="n">
-        <v>105.93</v>
+        <v>74.76</v>
       </c>
       <c r="G195" s="9" t="n">
-        <v>105.93</v>
+        <v>5.34</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I195" s="9" t="n">
         <v>0.0</v>
@@ -9818,41 +9823,43 @@
         <v>0.0</v>
       </c>
       <c r="K195" s="9" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="L195" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M195" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N195" s="7"/>
+      <c r="N195" s="7" t="s">
+        <v>434</v>
+      </c>
       <c r="O195" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B196" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E196" s="9" t="n">
-        <v>6.4</v>
+        <v>11.76</v>
       </c>
       <c r="F196" s="9" t="n">
-        <v>160.0</v>
+        <v>599.76</v>
       </c>
       <c r="G196" s="9" t="n">
-        <v>6.4</v>
+        <v>11.76</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I196" s="9" t="n">
         <v>0.0</v>
@@ -9861,10 +9868,10 @@
         <v>0.0</v>
       </c>
       <c r="K196" s="9" t="n">
-        <v>25.0</v>
+        <v>51.0</v>
       </c>
       <c r="L196" s="7" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="M196" s="7" t="s">
         <v>20</v>
@@ -9876,26 +9883,26 @@
     </row>
     <row r="197">
       <c r="A197" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B197" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E197" s="9" t="n">
-        <v>6.41</v>
+        <v>105.93</v>
       </c>
       <c r="F197" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G197" s="9" t="n">
-        <v>6.41</v>
+        <v>105.93</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="I197" s="9" t="n">
         <v>0.0</v>
@@ -9907,7 +9914,7 @@
         <v>0.0</v>
       </c>
       <c r="L197" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M197" s="7" t="s">
         <v>20</v>
@@ -9918,49 +9925,135 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10" t="n">
-        <v>92254.73</v>
-      </c>
-      <c r="G198" s="10"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="10"/>
-      <c r="J198" s="10"/>
-      <c r="K198" s="10" t="n">
-        <v>3758.0</v>
-      </c>
-      <c r="L198" s="8"/>
-      <c r="M198" s="8"/>
-      <c r="N198" s="8"/>
-      <c r="O198" s="8"/>
-    </row>
-    <row r="199"/>
+      <c r="A198" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E198" s="9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F198" s="9" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="G198" s="9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H198" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I198" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J198" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K198" s="9" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L198" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M198" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N198" s="7"/>
+      <c r="O198" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E199" s="9" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="F199" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G199" s="9" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="H199" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I199" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J199" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K199" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L199" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M199" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N199" s="7"/>
+      <c r="O199" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="200">
-      <c r="A200" s="8" t="s">
-        <v>440</v>
-      </c>
+      <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
       <c r="E200" s="10"/>
       <c r="F200" s="10" t="n">
-        <v>92254.73</v>
+        <v>90540.68</v>
       </c>
       <c r="G200" s="10"/>
       <c r="H200" s="8"/>
       <c r="I200" s="10"/>
       <c r="J200" s="10"/>
       <c r="K200" s="10" t="n">
-        <v>3758.0</v>
+        <v>3852.0</v>
       </c>
       <c r="L200" s="8"/>
       <c r="M200" s="8"/>
       <c r="N200" s="8"/>
       <c r="O200" s="8"/>
+    </row>
+    <row r="201"/>
+    <row r="202">
+      <c r="A202" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10" t="n">
+        <v>90540.68</v>
+      </c>
+      <c r="G202" s="10"/>
+      <c r="H202" s="8"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="10"/>
+      <c r="K202" s="10" t="n">
+        <v>3852.0</v>
+      </c>
+      <c r="L202" s="8"/>
+      <c r="M202" s="8"/>
+      <c r="N202" s="8"/>
+      <c r="O202" s="8"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
